--- a/010-外部設計/納品物/014-画面レイアウト_画面入出力項目一覧/014-3-外部設計書(画面・帳票仕様)_ショッピング_会員ログイン.xlsx
+++ b/010-外部設計/納品物/014-画面レイアウト_画面入出力項目一覧/014-3-外部設計書(画面・帳票仕様)_ショッピング_会員ログイン.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59332F4E-54CF-4B52-B350-37013E6F45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C25927-EDA4-43EE-842B-B6975DF6C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト図!$A$1:$BE$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$14</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>業務</t>
   </si>
@@ -323,6 +323,14 @@
     <rPh sb="3" eb="5">
       <t>タケシト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistUserServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -623,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +703,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1210,81 +1230,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="25" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="24" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25" t="s">
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="24" t="s">
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="25" t="s">
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
       <c r="BF1" s="7"/>
       <c r="BG1" s="7"/>
       <c r="BH1" s="7"/>
@@ -1484,71 +1504,71 @@
       <c r="IT1" s="7"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="25" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="24" t="s">
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="36">
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="41">
         <v>45553</v>
       </c>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
@@ -2004,71 +2024,71 @@
       <c r="IT3" s="7"/>
     </row>
     <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="27" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28" t="s">
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -2268,63 +2288,63 @@
       <c r="IT4" s="7"/>
     </row>
     <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -8268,7 +8288,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HY16"/>
+  <dimension ref="A1:HY14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -8282,79 +8302,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="24" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="25" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="24" t="s">
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="25" t="s">
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="36" t="s">
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -8535,69 +8555,69 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="25" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="24" t="s">
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="25" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="36">
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="41">
         <v>45553</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -9013,69 +9033,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="44" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="42" t="s">
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -9256,61 +9276,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -9711,71 +9731,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27" t="s">
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27" t="s">
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -9905,61 +9925,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -10089,71 +10109,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38" t="s">
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="48" t="s">
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -10283,71 +10303,71 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="41" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="38" t="s">
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="48" t="s">
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -10477,71 +10497,71 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="47" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38" t="s">
-        <v>18</v>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="52" t="s">
+        <v>50</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="48" t="s">
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -10671,71 +10691,71 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="47" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="37" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="38" t="s">
-        <v>18</v>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="52" t="s">
+        <v>49</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="48" t="s">
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -10865,71 +10885,71 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="37" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="38" t="s">
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="48" t="s">
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -11059,61 +11079,61 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -11242,392 +11262,19 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="CP15" s="3"/>
-      <c r="CQ15" s="3"/>
-      <c r="CR15" s="3"/>
-      <c r="CS15" s="3"/>
-      <c r="CT15" s="3"/>
-      <c r="CU15" s="3"/>
-      <c r="CV15" s="3"/>
-      <c r="CW15" s="3"/>
-      <c r="CX15" s="3"/>
-      <c r="CY15" s="3"/>
-      <c r="CZ15" s="3"/>
-      <c r="DA15" s="3"/>
-      <c r="DB15" s="3"/>
-      <c r="DC15" s="3"/>
-      <c r="DD15" s="3"/>
-      <c r="DE15" s="3"/>
-      <c r="DF15" s="3"/>
-      <c r="DG15" s="3"/>
-      <c r="DH15" s="3"/>
-      <c r="DI15" s="3"/>
-      <c r="DJ15" s="3"/>
-      <c r="DK15" s="3"/>
-      <c r="DL15" s="3"/>
-      <c r="DM15" s="3"/>
-      <c r="DN15" s="3"/>
-      <c r="DO15" s="3"/>
-      <c r="DP15" s="3"/>
-      <c r="DQ15" s="3"/>
-      <c r="DR15" s="3"/>
-      <c r="DS15" s="3"/>
-      <c r="DT15" s="3"/>
-      <c r="DU15" s="3"/>
-      <c r="DV15" s="3"/>
-      <c r="DW15" s="3"/>
-      <c r="DX15" s="3"/>
-      <c r="DY15" s="3"/>
-      <c r="DZ15" s="3"/>
-      <c r="EA15" s="3"/>
-      <c r="EB15" s="3"/>
-      <c r="EC15" s="3"/>
-      <c r="ED15" s="3"/>
-      <c r="EE15" s="3"/>
-      <c r="EF15" s="3"/>
-      <c r="EG15" s="3"/>
-      <c r="EH15" s="3"/>
-      <c r="EI15" s="3"/>
-      <c r="EJ15" s="3"/>
-      <c r="EK15" s="3"/>
-      <c r="EL15" s="3"/>
-      <c r="EM15" s="3"/>
-      <c r="EN15" s="3"/>
-      <c r="EO15" s="3"/>
-      <c r="EP15" s="3"/>
-      <c r="EQ15" s="3"/>
-      <c r="ER15" s="3"/>
-      <c r="ES15" s="3"/>
-      <c r="ET15" s="3"/>
-      <c r="EU15" s="3"/>
-      <c r="EV15" s="3"/>
-      <c r="EW15" s="3"/>
-      <c r="EX15" s="3"/>
-      <c r="EY15" s="3"/>
-      <c r="EZ15" s="3"/>
-      <c r="FA15" s="3"/>
-      <c r="FB15" s="3"/>
-      <c r="FC15" s="3"/>
-      <c r="FD15" s="3"/>
-      <c r="FE15" s="3"/>
-      <c r="FF15" s="3"/>
-      <c r="FG15" s="3"/>
-      <c r="FH15" s="3"/>
-      <c r="FI15" s="3"/>
-      <c r="FJ15" s="3"/>
-      <c r="FK15" s="3"/>
-      <c r="FL15" s="3"/>
-      <c r="FM15" s="3"/>
-      <c r="FN15" s="3"/>
-      <c r="FO15" s="3"/>
-      <c r="FP15" s="3"/>
-      <c r="FQ15" s="3"/>
-      <c r="FR15" s="3"/>
-      <c r="FS15" s="3"/>
-      <c r="FT15" s="3"/>
-      <c r="FU15" s="3"/>
-      <c r="FV15" s="3"/>
-      <c r="FW15" s="3"/>
-      <c r="FX15" s="3"/>
-      <c r="FY15" s="3"/>
-      <c r="FZ15" s="3"/>
-      <c r="GA15" s="3"/>
-      <c r="GB15" s="3"/>
-      <c r="GC15" s="3"/>
-      <c r="GD15" s="3"/>
-      <c r="GE15" s="3"/>
-      <c r="GF15" s="3"/>
-      <c r="GG15" s="3"/>
-      <c r="GH15" s="3"/>
-      <c r="GI15" s="3"/>
-      <c r="GJ15" s="3"/>
-      <c r="GK15" s="3"/>
-      <c r="GL15" s="3"/>
-      <c r="GM15" s="3"/>
-      <c r="GN15" s="3"/>
-      <c r="GO15" s="3"/>
-      <c r="GP15" s="3"/>
-      <c r="GQ15" s="3"/>
-      <c r="GR15" s="3"/>
-      <c r="GS15" s="3"/>
-      <c r="GT15" s="3"/>
-      <c r="GU15" s="3"/>
-      <c r="GV15" s="3"/>
-      <c r="GW15" s="3"/>
-      <c r="GX15" s="3"/>
-      <c r="GY15" s="3"/>
-      <c r="GZ15" s="3"/>
-      <c r="HA15" s="3"/>
-      <c r="HB15" s="3"/>
-      <c r="HC15" s="3"/>
-      <c r="HD15" s="3"/>
-      <c r="HE15" s="3"/>
-      <c r="HF15" s="3"/>
-      <c r="HG15" s="3"/>
-      <c r="HH15" s="3"/>
-      <c r="HI15" s="3"/>
-      <c r="HJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="CP16" s="3"/>
-      <c r="CQ16" s="3"/>
-      <c r="CR16" s="3"/>
-      <c r="CS16" s="3"/>
-      <c r="CT16" s="3"/>
-      <c r="CU16" s="3"/>
-      <c r="CV16" s="3"/>
-      <c r="CW16" s="3"/>
-      <c r="CX16" s="3"/>
-      <c r="CY16" s="3"/>
-      <c r="CZ16" s="3"/>
-      <c r="DA16" s="3"/>
-      <c r="DB16" s="3"/>
-      <c r="DC16" s="3"/>
-      <c r="DD16" s="3"/>
-      <c r="DE16" s="3"/>
-      <c r="DF16" s="3"/>
-      <c r="DG16" s="3"/>
-      <c r="DH16" s="3"/>
-      <c r="DI16" s="3"/>
-      <c r="DJ16" s="3"/>
-      <c r="DK16" s="3"/>
-      <c r="DL16" s="3"/>
-      <c r="DM16" s="3"/>
-      <c r="DN16" s="3"/>
-      <c r="DO16" s="3"/>
-      <c r="DP16" s="3"/>
-      <c r="DQ16" s="3"/>
-      <c r="DR16" s="3"/>
-      <c r="DS16" s="3"/>
-      <c r="DT16" s="3"/>
-      <c r="DU16" s="3"/>
-      <c r="DV16" s="3"/>
-      <c r="DW16" s="3"/>
-      <c r="DX16" s="3"/>
-      <c r="DY16" s="3"/>
-      <c r="DZ16" s="3"/>
-      <c r="EA16" s="3"/>
-      <c r="EB16" s="3"/>
-      <c r="EC16" s="3"/>
-      <c r="ED16" s="3"/>
-      <c r="EE16" s="3"/>
-      <c r="EF16" s="3"/>
-      <c r="EG16" s="3"/>
-      <c r="EH16" s="3"/>
-      <c r="EI16" s="3"/>
-      <c r="EJ16" s="3"/>
-      <c r="EK16" s="3"/>
-      <c r="EL16" s="3"/>
-      <c r="EM16" s="3"/>
-      <c r="EN16" s="3"/>
-      <c r="EO16" s="3"/>
-      <c r="EP16" s="3"/>
-      <c r="EQ16" s="3"/>
-      <c r="ER16" s="3"/>
-      <c r="ES16" s="3"/>
-      <c r="ET16" s="3"/>
-      <c r="EU16" s="3"/>
-      <c r="EV16" s="3"/>
-      <c r="EW16" s="3"/>
-      <c r="EX16" s="3"/>
-      <c r="EY16" s="3"/>
-      <c r="EZ16" s="3"/>
-      <c r="FA16" s="3"/>
-      <c r="FB16" s="3"/>
-      <c r="FC16" s="3"/>
-      <c r="FD16" s="3"/>
-      <c r="FE16" s="3"/>
-      <c r="FF16" s="3"/>
-      <c r="FG16" s="3"/>
-      <c r="FH16" s="3"/>
-      <c r="FI16" s="3"/>
-      <c r="FJ16" s="3"/>
-      <c r="FK16" s="3"/>
-      <c r="FL16" s="3"/>
-      <c r="FM16" s="3"/>
-      <c r="FN16" s="3"/>
-      <c r="FO16" s="3"/>
-      <c r="FP16" s="3"/>
-      <c r="FQ16" s="3"/>
-      <c r="FR16" s="3"/>
-      <c r="FS16" s="3"/>
-      <c r="FT16" s="3"/>
-      <c r="FU16" s="3"/>
-      <c r="FV16" s="3"/>
-      <c r="FW16" s="3"/>
-      <c r="FX16" s="3"/>
-      <c r="FY16" s="3"/>
-      <c r="FZ16" s="3"/>
-      <c r="GA16" s="3"/>
-      <c r="GB16" s="3"/>
-      <c r="GC16" s="3"/>
-      <c r="GD16" s="3"/>
-      <c r="GE16" s="3"/>
-      <c r="GF16" s="3"/>
-      <c r="GG16" s="3"/>
-      <c r="GH16" s="3"/>
-      <c r="GI16" s="3"/>
-      <c r="GJ16" s="3"/>
-      <c r="GK16" s="3"/>
-      <c r="GL16" s="3"/>
-      <c r="GM16" s="3"/>
-      <c r="GN16" s="3"/>
-      <c r="GO16" s="3"/>
-      <c r="GP16" s="3"/>
-      <c r="GQ16" s="3"/>
-      <c r="GR16" s="3"/>
-      <c r="GS16" s="3"/>
-      <c r="GT16" s="3"/>
-      <c r="GU16" s="3"/>
-      <c r="GV16" s="3"/>
-      <c r="GW16" s="3"/>
-      <c r="GX16" s="3"/>
-      <c r="GY16" s="3"/>
-      <c r="GZ16" s="3"/>
-      <c r="HA16" s="3"/>
-      <c r="HB16" s="3"/>
-      <c r="HC16" s="3"/>
-      <c r="HD16" s="3"/>
-      <c r="HE16" s="3"/>
-      <c r="HF16" s="3"/>
-      <c r="HG16" s="3"/>
-      <c r="HH16" s="3"/>
-      <c r="HI16" s="3"/>
-      <c r="HJ16" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="Q7:V8"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="AE16:BC16"/>
-    <mergeCell ref="AE9:BC9"/>
+  <mergeCells count="51">
     <mergeCell ref="AE10:BC10"/>
     <mergeCell ref="AE7:BC8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:BC5"/>
+    <mergeCell ref="Q7:V8"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="AE9:BC9"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="Q11:V11"/>
@@ -11638,16 +11285,6 @@
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="W12:AD12"/>
     <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="AE14:BC14"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="I13:P13"/>
     <mergeCell ref="Q13:V13"/>
@@ -11681,7 +11318,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
